--- a/src/assets/with_examples/faang_experiment.xlsx
+++ b/src/assets/with_examples/faang_experiment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/with_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931CF813-F7CC-BB4B-87DF-51F915257F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8D32D7-D2AE-F249-8613-E513B3C02E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30600" yWindow="1240" windowWidth="51200" windowHeight="16400" activeTab="13" xr2:uid="{58DBCFEB-F75F-A348-9496-13E962F9C8F7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" activeTab="11" xr2:uid="{58DBCFEB-F75F-A348-9496-13E962F9C8F7}"/>
   </bookViews>
   <sheets>
     <sheet name="submission" sheetId="13" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="chip-seq input dna" sheetId="8" r:id="rId9"/>
     <sheet name="chip-seq dna-binding proteins" sheetId="9" r:id="rId10"/>
     <sheet name="bs-seq" sheetId="6" r:id="rId11"/>
-    <sheet name="atac-seq" sheetId="7" r:id="rId12"/>
-    <sheet name="scrna-seq" sheetId="14" r:id="rId13"/>
-    <sheet name="cage-seq" sheetId="15" r:id="rId14"/>
-    <sheet name="faang_field_values" sheetId="2" state="hidden" r:id="rId15"/>
+    <sheet name="em-seq" sheetId="16" r:id="rId12"/>
+    <sheet name="atac-seq" sheetId="7" r:id="rId13"/>
+    <sheet name="scrna-seq" sheetId="14" r:id="rId14"/>
+    <sheet name="cage-seq" sheetId="15" r:id="rId15"/>
+    <sheet name="faang_field_values" sheetId="2" state="hidden" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'experiment ena'!$B$1:$B$61</definedName>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3070" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3102" uniqueCount="581">
   <si>
     <t>Sample Descriptor</t>
   </si>
@@ -1788,6 +1789,12 @@
   </si>
   <si>
     <t>Restriction Enzyme Target Sequence</t>
+  </si>
+  <si>
+    <t>Enzymatic Methylation Conversion Protocol</t>
+  </si>
+  <si>
+    <t>Enzymatic Methylation Conversion Percent</t>
   </si>
 </sst>
 </file>
@@ -1871,7 +1878,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2454,7 +2461,7 @@
   <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2640,6 +2647,161 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CD042A-2E73-AB48-8641-C39B87E182FC}">
+  <dimension ref="A1:AF4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F024D0-A71F-1D4F-B7B8-1935431836D0}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
@@ -2799,7 +2961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915533FD-907A-6F4D-A3D0-6F3E67DCA835}">
   <dimension ref="A1:AO1"/>
   <sheetViews>
@@ -2979,11 +3141,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2353DD-D244-1A4B-A630-CADDC4768141}">
   <dimension ref="A1:AI1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3135,7 +3297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFC3F93-CB0B-BF48-9B11-5793D4DCF38D}">
   <dimension ref="A1:BB1000"/>
   <sheetViews>

--- a/src/assets/with_examples/faang_experiment.xlsx
+++ b/src/assets/with_examples/faang_experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/with_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8D32D7-D2AE-F249-8613-E513B3C02E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0A5B51-18B8-7541-B35E-685E7FD9BFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" activeTab="11" xr2:uid="{58DBCFEB-F75F-A348-9496-13E962F9C8F7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" firstSheet="2" activeTab="13" xr2:uid="{58DBCFEB-F75F-A348-9496-13E962F9C8F7}"/>
   </bookViews>
   <sheets>
     <sheet name="submission" sheetId="13" r:id="rId1"/>
@@ -1746,9 +1746,6 @@
     <t>Amplification Method</t>
   </si>
   <si>
-    <t>Amplification Cycle</t>
-  </si>
-  <si>
     <t>End Bias</t>
   </si>
   <si>
@@ -1764,12 +1761,6 @@
     <t>Sequencing Protocol</t>
   </si>
   <si>
-    <t>RNA purity 260:280 ratio</t>
-  </si>
-  <si>
-    <t>RNA purity 260:230 ratio</t>
-  </si>
-  <si>
     <t>Library Construction</t>
   </si>
   <si>
@@ -1795,6 +1786,15 @@
   </si>
   <si>
     <t>Enzymatic Methylation Conversion Percent</t>
+  </si>
+  <si>
+    <t>RNA purity 260-280 ratio</t>
+  </si>
+  <si>
+    <t>RNA purity 260-230 ratio</t>
+  </si>
+  <si>
+    <t>Amplification Cycles</t>
   </si>
 </sst>
 </file>
@@ -2650,7 +2650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CD042A-2E73-AB48-8641-C39B87E182FC}">
   <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="V1" workbookViewId="0">
       <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
@@ -2784,10 +2784,10 @@
         <v>144</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
@@ -2805,7 +2805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F024D0-A71F-1D4F-B7B8-1935431836D0}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -2965,7 +2965,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915533FD-907A-6F4D-A3D0-6F3E67DCA835}">
   <dimension ref="A1:AO1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2999,7 +3001,7 @@
     <col min="28" max="28" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="7.6640625" bestFit="1" customWidth="1"/>
@@ -3007,7 +3009,7 @@
     <col min="36" max="36" width="24" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="22" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3094,43 +3096,43 @@
         <v>150</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>563</v>
       </c>
       <c r="AE1" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>568</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>129</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>130</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>131</v>
@@ -3145,7 +3147,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2353DD-D244-1A4B-A630-CADDC4768141}">
   <dimension ref="A1:AI1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3268,25 +3272,25 @@
         <v>150</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="AE1" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>570</v>
-      </c>
       <c r="AH1" s="1" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>131</v>

--- a/src/assets/with_examples/faang_experiment.xlsx
+++ b/src/assets/with_examples/faang_experiment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/with_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0A5B51-18B8-7541-B35E-685E7FD9BFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0515A28-423A-8A41-B87A-2A215AD8FEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" firstSheet="2" activeTab="13" xr2:uid="{58DBCFEB-F75F-A348-9496-13E962F9C8F7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" firstSheet="2" activeTab="9" xr2:uid="{58DBCFEB-F75F-A348-9496-13E962F9C8F7}"/>
   </bookViews>
   <sheets>
     <sheet name="submission" sheetId="13" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3102" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3104" uniqueCount="582">
   <si>
     <t>Sample Descriptor</t>
   </si>
@@ -1795,6 +1795,9 @@
   </si>
   <si>
     <t>Amplification Cycles</t>
+  </si>
+  <si>
+    <t>Adapter Step</t>
   </si>
 </sst>
 </file>
@@ -1901,7 +1904,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="limitedValuesList"/>
@@ -2272,10 +2275,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38584B3-9902-4E4A-AF0D-04428F33785F}">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2308,17 +2311,18 @@
     <col min="26" max="26" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="39" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.83203125" customWidth="1"/>
+    <col min="30" max="30" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2404,31 +2408,34 @@
         <v>146</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="AA2" s="1"/>
@@ -2965,7 +2972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915533FD-907A-6F4D-A3D0-6F3E67DCA835}">
   <dimension ref="A1:AO1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+    <sheetView topLeftCell="AE1" workbookViewId="0">
       <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
@@ -15834,10 +15841,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BD49F3-4725-E748-A029-B6B285E09FD7}">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15870,11 +15877,12 @@
     <col min="26" max="26" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="39" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.83203125" customWidth="1"/>
+    <col min="30" max="30" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15960,13 +15968,16 @@
         <v>146</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>

--- a/src/assets/with_examples/faang_experiment.xlsx
+++ b/src/assets/with_examples/faang_experiment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/with_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0515A28-423A-8A41-B87A-2A215AD8FEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B9412F-CCAD-EF48-AE94-DC7251F54D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" firstSheet="2" activeTab="9" xr2:uid="{58DBCFEB-F75F-A348-9496-13E962F9C8F7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" firstSheet="2" activeTab="14" xr2:uid="{58DBCFEB-F75F-A348-9496-13E962F9C8F7}"/>
   </bookViews>
   <sheets>
     <sheet name="submission" sheetId="13" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3104" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3105" uniqueCount="583">
   <si>
     <t>Sample Descriptor</t>
   </si>
@@ -1798,6 +1798,9 @@
   </si>
   <si>
     <t>Adapter Step</t>
+  </si>
+  <si>
+    <t>NextSeq 2000</t>
   </si>
 </sst>
 </file>
@@ -2277,7 +2280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38584B3-9902-4E4A-AF0D-04428F33785F}">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="V1" workbookViewId="0">
       <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
@@ -3154,7 +3157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2353DD-D244-1A4B-A630-CADDC4768141}">
   <dimension ref="A1:AI1"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
@@ -3310,10 +3313,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFC3F93-CB0B-BF48-9B11-5793D4DCF38D}">
-  <dimension ref="A1:BB1000"/>
+  <dimension ref="A1:BC1000"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BC17" sqref="BC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3827,7 +3830,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="17" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>446</v>
       </c>
@@ -3990,8 +3993,11 @@
       <c r="BB17" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="18" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BC17" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>515</v>
       </c>
@@ -3999,7 +4005,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="19" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>519</v>
       </c>
@@ -4046,7 +4052,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="20" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>533</v>
       </c>
@@ -4120,18 +4126,18 @@
         <v>555</v>
       </c>
     </row>
-    <row r="21" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5101,7 +5107,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="smGSKLZZYbjv4rEzVCF2RDiKJ2LxKQjYm7nIihGTDR5MYn7OgHsciHQ+Kuwa/ZqHyDL1m1SniyLeMcE3kRfiwg==" saltValue="liETn1QaTL8H6qIOg21guQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eZBtlJ1bg3jSagrfqOKVQfCg1QBQvhuEM5p2K1uAA3mXt2o7R/ci0PjO2kmE8iajIOEcEWV0V88Br2bd3bU+Pg==" saltValue="EJdY4IQxZAJ7XPr4nTzgqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5300,8 +5306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F098638-7041-8742-A382-2ACA2B20888B}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8195,7 +8201,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{8A85B586-78C5-3A4F-82C3-CA4CF7CE4605}">
           <x14:formula1>
             <xm:f>faang_field_values!$A$12:$AJ$12</xm:f>
@@ -8230,7 +8236,13 @@
           <x14:formula1>
             <xm:f>faang_field_values!$A$17:$BB$17</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:O61</xm:sqref>
+          <xm:sqref>O3:O61</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{EA39BA85-9002-7E40-8848-8844945AE72E}">
+          <x14:formula1>
+            <xm:f>faang_field_values!$A$17:$BC$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>O2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
